--- a/Code/Results/Cases/Case_4_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9994951081661969</v>
+        <v>1.029358489464243</v>
       </c>
       <c r="D2">
-        <v>1.023338010121712</v>
+        <v>1.039328387759727</v>
       </c>
       <c r="E2">
-        <v>1.007674050823118</v>
+        <v>1.032993435636037</v>
       </c>
       <c r="F2">
-        <v>1.027360541437574</v>
+        <v>1.047802589758732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049477217444003</v>
+        <v>1.036636729298295</v>
       </c>
       <c r="J2">
-        <v>1.021690930954308</v>
+        <v>1.034505705879688</v>
       </c>
       <c r="K2">
-        <v>1.034481509169537</v>
+        <v>1.042113887532002</v>
       </c>
       <c r="L2">
-        <v>1.019027499288565</v>
+        <v>1.035797065510537</v>
       </c>
       <c r="M2">
-        <v>1.0384514191398</v>
+        <v>1.050564208927227</v>
       </c>
       <c r="N2">
-        <v>1.011098156865386</v>
+        <v>1.01549454372717</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004035009169815</v>
+        <v>1.030314250437209</v>
       </c>
       <c r="D3">
-        <v>1.026866243409666</v>
+        <v>1.04008023098506</v>
       </c>
       <c r="E3">
-        <v>1.011707863467779</v>
+        <v>1.033896929726259</v>
       </c>
       <c r="F3">
-        <v>1.031404335513327</v>
+        <v>1.048687320335965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050865856278731</v>
+        <v>1.036841210322978</v>
       </c>
       <c r="J3">
-        <v>1.024416276912222</v>
+        <v>1.035102433099425</v>
       </c>
       <c r="K3">
-        <v>1.03716652937344</v>
+        <v>1.042676080741799</v>
       </c>
       <c r="L3">
-        <v>1.022193100025122</v>
+        <v>1.036509194597152</v>
       </c>
       <c r="M3">
-        <v>1.04165056167591</v>
+        <v>1.051260668364345</v>
       </c>
       <c r="N3">
-        <v>1.012013002155786</v>
+        <v>1.015693505177421</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006911875023782</v>
+        <v>1.030933013231556</v>
       </c>
       <c r="D4">
-        <v>1.029102301915934</v>
+        <v>1.040566633895493</v>
       </c>
       <c r="E4">
-        <v>1.01426950783467</v>
+        <v>1.034482223325876</v>
       </c>
       <c r="F4">
-        <v>1.033969235777473</v>
+        <v>1.049260032161022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051731676559445</v>
+        <v>1.036971835583761</v>
       </c>
       <c r="J4">
-        <v>1.02614041177193</v>
+        <v>1.035488277858751</v>
       </c>
       <c r="K4">
-        <v>1.038861731167306</v>
+        <v>1.043039104636248</v>
       </c>
       <c r="L4">
-        <v>1.024198709798977</v>
+        <v>1.036970032394771</v>
       </c>
       <c r="M4">
-        <v>1.043674265167595</v>
+        <v>1.051710919707445</v>
       </c>
       <c r="N4">
-        <v>1.012591606114234</v>
+        <v>1.015822107183003</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008107283958251</v>
+        <v>1.031193217281273</v>
       </c>
       <c r="D5">
-        <v>1.03003144705647</v>
+        <v>1.040771094823307</v>
       </c>
       <c r="E5">
-        <v>1.015335212234642</v>
+        <v>1.034728440573235</v>
       </c>
       <c r="F5">
-        <v>1.03503554147483</v>
+        <v>1.04950085440024</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052088001837865</v>
+        <v>1.037026345758757</v>
       </c>
       <c r="J5">
-        <v>1.026856107989562</v>
+        <v>1.035650419654175</v>
       </c>
       <c r="K5">
-        <v>1.039564578869962</v>
+        <v>1.043191538654886</v>
       </c>
       <c r="L5">
-        <v>1.025031961946373</v>
+        <v>1.037163777823753</v>
       </c>
       <c r="M5">
-        <v>1.044514261865879</v>
+        <v>1.051900107373743</v>
       </c>
       <c r="N5">
-        <v>1.01283174696269</v>
+        <v>1.015876137767179</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008307190521109</v>
+        <v>1.031236911129507</v>
       </c>
       <c r="D6">
-        <v>1.030186825500711</v>
+        <v>1.04080542333384</v>
       </c>
       <c r="E6">
-        <v>1.015513502564973</v>
+        <v>1.034769790869901</v>
       </c>
       <c r="F6">
-        <v>1.0352138877387</v>
+        <v>1.049541292652195</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052147385630748</v>
+        <v>1.037035474506811</v>
       </c>
       <c r="J6">
-        <v>1.026975749288181</v>
+        <v>1.035677640000812</v>
       </c>
       <c r="K6">
-        <v>1.039682022525603</v>
+        <v>1.043217122340198</v>
       </c>
       <c r="L6">
-        <v>1.025171296954589</v>
+        <v>1.03719630904547</v>
       </c>
       <c r="M6">
-        <v>1.044654678824307</v>
+        <v>1.051931867034793</v>
       </c>
       <c r="N6">
-        <v>1.012871888296293</v>
+        <v>1.015885207754083</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006927902578556</v>
+        <v>1.030936489792509</v>
       </c>
       <c r="D7">
-        <v>1.029114759559378</v>
+        <v>1.0405693660039</v>
       </c>
       <c r="E7">
-        <v>1.014283791363451</v>
+        <v>1.034485512666296</v>
       </c>
       <c r="F7">
-        <v>1.033983530357308</v>
+        <v>1.049263249828349</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051736467698857</v>
+        <v>1.036972565542356</v>
       </c>
       <c r="J7">
-        <v>1.026150010441565</v>
+        <v>1.035490444671059</v>
       </c>
       <c r="K7">
-        <v>1.038871160852885</v>
+        <v>1.04304114218046</v>
       </c>
       <c r="L7">
-        <v>1.024209882257664</v>
+        <v>1.036972621195704</v>
       </c>
       <c r="M7">
-        <v>1.043685531131578</v>
+        <v>1.051713448028839</v>
       </c>
       <c r="N7">
-        <v>1.012594826963547</v>
+        <v>1.015822829275152</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001042289484199</v>
+        <v>1.029681426299789</v>
       </c>
       <c r="D8">
-        <v>1.024540326265854</v>
+        <v>1.039582494522878</v>
       </c>
       <c r="E8">
-        <v>1.009047586939601</v>
+        <v>1.03329863573683</v>
       </c>
       <c r="F8">
-        <v>1.028738113531797</v>
+        <v>1.048101539756717</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049953393817922</v>
+        <v>1.036706183657443</v>
       </c>
       <c r="J8">
-        <v>1.022620300282613</v>
+        <v>1.034707429604893</v>
       </c>
       <c r="K8">
-        <v>1.035397834954205</v>
+        <v>1.042304038595554</v>
       </c>
       <c r="L8">
-        <v>1.020106381892464</v>
+        <v>1.03603772343962</v>
       </c>
       <c r="M8">
-        <v>1.039542386218672</v>
+        <v>1.050799663707234</v>
       </c>
       <c r="N8">
-        <v>1.011410158373121</v>
+        <v>1.015561812333478</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9901810515811688</v>
+        <v>1.02747234195202</v>
       </c>
       <c r="D9">
-        <v>1.016103661660305</v>
+        <v>1.037842870344375</v>
       </c>
       <c r="E9">
-        <v>0.9994302135625911</v>
+        <v>1.031212409506195</v>
       </c>
       <c r="F9">
-        <v>1.019080011903219</v>
+        <v>1.046056294113215</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046552751328759</v>
+        <v>1.036223888434456</v>
       </c>
       <c r="J9">
-        <v>1.016085371367649</v>
+        <v>1.033325568722247</v>
       </c>
       <c r="K9">
-        <v>1.028940761569075</v>
+        <v>1.040999448138313</v>
       </c>
       <c r="L9">
-        <v>1.012532541923463</v>
+        <v>1.034390684524901</v>
       </c>
       <c r="M9">
-        <v>1.031870932303578</v>
+        <v>1.049186412200731</v>
       </c>
       <c r="N9">
-        <v>1.009215774429493</v>
+        <v>1.015100814612007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9825738538875244</v>
+        <v>1.026001344234116</v>
       </c>
       <c r="D10">
-        <v>1.010202080876751</v>
+        <v>1.03668277421624</v>
       </c>
       <c r="E10">
-        <v>0.9927277444075272</v>
+        <v>1.029825158647949</v>
       </c>
       <c r="F10">
-        <v>1.012333976633651</v>
+        <v>1.044694109829056</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044099770456706</v>
+        <v>1.03589372579592</v>
       </c>
       <c r="J10">
-        <v>1.011496338859132</v>
+        <v>1.032402974459701</v>
       </c>
       <c r="K10">
-        <v>1.024389544785647</v>
+        <v>1.040125935091241</v>
       </c>
       <c r="L10">
-        <v>1.007229554915813</v>
+        <v>1.033292965251719</v>
       </c>
       <c r="M10">
-        <v>1.026484051896315</v>
+        <v>1.048108930279531</v>
       </c>
       <c r="N10">
-        <v>1.007674293924143</v>
+        <v>1.014792794721361</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.979183987937415</v>
+        <v>1.025364804217437</v>
       </c>
       <c r="D11">
-        <v>1.00757499708701</v>
+        <v>1.036180373464728</v>
       </c>
       <c r="E11">
-        <v>0.9897496500304032</v>
+        <v>1.029225323742516</v>
       </c>
       <c r="F11">
-        <v>1.009333140441395</v>
+        <v>1.044104596470485</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042990597825721</v>
+        <v>1.035748722017881</v>
       </c>
       <c r="J11">
-        <v>1.009449130690004</v>
+        <v>1.032003170144114</v>
       </c>
       <c r="K11">
-        <v>1.022355460089194</v>
+        <v>1.039746808474387</v>
       </c>
       <c r="L11">
-        <v>1.004867496926582</v>
+        <v>1.032817725195156</v>
       </c>
       <c r="M11">
-        <v>1.024081167927127</v>
+        <v>1.047641912698147</v>
       </c>
       <c r="N11">
-        <v>1.006986552558775</v>
+        <v>1.014659259519732</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9779096051900779</v>
+        <v>1.02512842742354</v>
       </c>
       <c r="D12">
-        <v>1.00658787219751</v>
+        <v>1.035993749955104</v>
       </c>
       <c r="E12">
-        <v>0.9886314219378104</v>
+        <v>1.029002647725759</v>
       </c>
       <c r="F12">
-        <v>1.008205884223183</v>
+        <v>1.04388567449855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042571269037744</v>
+        <v>1.035694555075162</v>
       </c>
       <c r="J12">
-        <v>1.008679213971751</v>
+        <v>1.031854618488271</v>
       </c>
       <c r="K12">
-        <v>1.021589938039551</v>
+        <v>1.039605851230595</v>
       </c>
       <c r="L12">
-        <v>1.003979715859315</v>
+        <v>1.032641212744134</v>
       </c>
       <c r="M12">
-        <v>1.023177543145575</v>
+        <v>1.047468373406819</v>
       </c>
       <c r="N12">
-        <v>1.006727899128827</v>
+        <v>1.014609634786785</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9781836680161842</v>
+        <v>1.025179128208953</v>
       </c>
       <c r="D13">
-        <v>1.006800134725341</v>
+        <v>1.036033781741565</v>
       </c>
       <c r="E13">
-        <v>0.988871840717798</v>
+        <v>1.029050406615276</v>
       </c>
       <c r="F13">
-        <v>1.008448265816325</v>
+        <v>1.043932631743021</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042661552837737</v>
+        <v>1.035706187909867</v>
       </c>
       <c r="J13">
-        <v>1.00884480100574</v>
+        <v>1.031886485415871</v>
       </c>
       <c r="K13">
-        <v>1.021754603977139</v>
+        <v>1.039636093029641</v>
       </c>
       <c r="L13">
-        <v>1.004170627586662</v>
+        <v>1.032679074667381</v>
       </c>
       <c r="M13">
-        <v>1.023371884184659</v>
+        <v>1.047505601241615</v>
       </c>
       <c r="N13">
-        <v>1.006783528309492</v>
+        <v>1.014620280533121</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9790789628642058</v>
+        <v>1.02534526395892</v>
       </c>
       <c r="D14">
-        <v>1.007493635008075</v>
+        <v>1.036164947293889</v>
       </c>
       <c r="E14">
-        <v>0.9896574661860893</v>
+        <v>1.029206914628</v>
       </c>
       <c r="F14">
-        <v>1.009240222165869</v>
+        <v>1.044086499294244</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042956087185625</v>
+        <v>1.035744250802155</v>
       </c>
       <c r="J14">
-        <v>1.009385685546982</v>
+        <v>1.031990891762628</v>
       </c>
       <c r="K14">
-        <v>1.022292387950306</v>
+        <v>1.039735159607084</v>
       </c>
       <c r="L14">
-        <v>1.004794328098757</v>
+        <v>1.032803134353215</v>
       </c>
       <c r="M14">
-        <v>1.024006703324661</v>
+        <v>1.047627569270659</v>
       </c>
       <c r="N14">
-        <v>1.006965238283123</v>
+        <v>1.014655158007832</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9796285389220354</v>
+        <v>1.025447633980536</v>
       </c>
       <c r="D15">
-        <v>1.007919407995032</v>
+        <v>1.03624576149761</v>
       </c>
       <c r="E15">
-        <v>0.9901399020897267</v>
+        <v>1.029303361556057</v>
       </c>
       <c r="F15">
-        <v>1.009726481832297</v>
+        <v>1.044181308772261</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043136579493626</v>
+        <v>1.03576766206465</v>
       </c>
       <c r="J15">
-        <v>1.009717670239887</v>
+        <v>1.032055213816112</v>
       </c>
       <c r="K15">
-        <v>1.022622398946724</v>
+        <v>1.039796180233792</v>
       </c>
       <c r="L15">
-        <v>1.005177215373121</v>
+        <v>1.03287957335198</v>
       </c>
       <c r="M15">
-        <v>1.024396351069745</v>
+        <v>1.047702708797646</v>
       </c>
       <c r="N15">
-        <v>1.007076767661994</v>
+        <v>1.014676644024807</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9827967383380682</v>
+        <v>1.026043598028732</v>
       </c>
       <c r="D16">
-        <v>1.010374876487829</v>
+        <v>1.036716115499339</v>
       </c>
       <c r="E16">
-        <v>0.9929237391344509</v>
+        <v>1.029864985798296</v>
       </c>
       <c r="F16">
-        <v>1.012531399105036</v>
+        <v>1.044733240767741</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044172369484932</v>
+        <v>1.035903306263463</v>
       </c>
       <c r="J16">
-        <v>1.011630900068593</v>
+        <v>1.032429501587207</v>
       </c>
       <c r="K16">
-        <v>1.024523167241546</v>
+        <v>1.04015107781063</v>
       </c>
       <c r="L16">
-        <v>1.007384886629267</v>
+        <v>1.033324507123919</v>
       </c>
       <c r="M16">
-        <v>1.02664199802715</v>
+        <v>1.048139915080564</v>
       </c>
       <c r="N16">
-        <v>1.007719497396039</v>
+        <v>1.014801653656507</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9847578253437932</v>
+        <v>1.026417541218554</v>
       </c>
       <c r="D17">
-        <v>1.011895569867215</v>
+        <v>1.037011137877522</v>
       </c>
       <c r="E17">
-        <v>0.994649219223205</v>
+        <v>1.030217507223309</v>
       </c>
       <c r="F17">
-        <v>1.014269065256595</v>
+        <v>1.045079540062981</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044809321653749</v>
+        <v>1.035987846215316</v>
       </c>
       <c r="J17">
-        <v>1.012814606880866</v>
+        <v>1.032664198658034</v>
       </c>
       <c r="K17">
-        <v>1.025698192593874</v>
+        <v>1.040373458143342</v>
       </c>
       <c r="L17">
-        <v>1.008751721999543</v>
+        <v>1.033603624281449</v>
       </c>
       <c r="M17">
-        <v>1.028031447667941</v>
+        <v>1.04841404041307</v>
       </c>
       <c r="N17">
-        <v>1.008117135066291</v>
+        <v>1.014880026128232</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9858925003382685</v>
+        <v>1.026635695633757</v>
       </c>
       <c r="D18">
-        <v>1.012775688996729</v>
+        <v>1.037183212460602</v>
       </c>
       <c r="E18">
-        <v>0.9956483860283665</v>
+        <v>1.030423209319454</v>
       </c>
       <c r="F18">
-        <v>1.015274965734293</v>
+        <v>1.045281561512478</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045176327903274</v>
+        <v>1.036036959956177</v>
       </c>
       <c r="J18">
-        <v>1.013499274349812</v>
+        <v>1.032801063052059</v>
       </c>
       <c r="K18">
-        <v>1.02637748202968</v>
+        <v>1.040503082923406</v>
       </c>
       <c r="L18">
-        <v>1.009542659159044</v>
+        <v>1.033766436220141</v>
       </c>
       <c r="M18">
-        <v>1.028835141413187</v>
+        <v>1.048573888550221</v>
       </c>
       <c r="N18">
-        <v>1.00834712531775</v>
+        <v>1.014925723953039</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9862778599144998</v>
+        <v>1.02671008736205</v>
       </c>
       <c r="D19">
-        <v>1.013074636532073</v>
+        <v>1.037241884225211</v>
       </c>
       <c r="E19">
-        <v>0.9959878603090142</v>
+        <v>1.030493362346955</v>
       </c>
       <c r="F19">
-        <v>1.015616672498261</v>
+        <v>1.04535045081424</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045300709221614</v>
+        <v>1.036053673043209</v>
       </c>
       <c r="J19">
-        <v>1.013731763208729</v>
+        <v>1.032847725087186</v>
       </c>
       <c r="K19">
-        <v>1.026608083566694</v>
+        <v>1.040547267024167</v>
       </c>
       <c r="L19">
-        <v>1.009811292316101</v>
+        <v>1.033821952149317</v>
       </c>
       <c r="M19">
-        <v>1.029108050728686</v>
+        <v>1.048628385048464</v>
       </c>
       <c r="N19">
-        <v>1.008425220523602</v>
+        <v>1.014941303089864</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9845483760253372</v>
+        <v>1.026377416544232</v>
       </c>
       <c r="D20">
-        <v>1.011733128838011</v>
+        <v>1.036979485481267</v>
       </c>
       <c r="E20">
-        <v>0.9944648486062988</v>
+        <v>1.030179676488677</v>
       </c>
       <c r="F20">
-        <v>1.014083425890121</v>
+        <v>1.045042382217699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044741451831148</v>
+        <v>1.035978796249185</v>
       </c>
       <c r="J20">
-        <v>1.012688206239646</v>
+        <v>1.032639021026009</v>
       </c>
       <c r="K20">
-        <v>1.025572755840698</v>
+        <v>1.040349607717084</v>
       </c>
       <c r="L20">
-        <v>1.008605730291834</v>
+        <v>1.03357367685694</v>
       </c>
       <c r="M20">
-        <v>1.027883074569829</v>
+        <v>1.048384633957561</v>
       </c>
       <c r="N20">
-        <v>1.008074674548139</v>
+        <v>1.014871619105963</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9788157483756719</v>
+        <v>1.02529633939051</v>
       </c>
       <c r="D21">
-        <v>1.007289733193056</v>
+        <v>1.036126322560313</v>
       </c>
       <c r="E21">
-        <v>0.9894264564781852</v>
+        <v>1.029160823338988</v>
       </c>
       <c r="F21">
-        <v>1.009007364187936</v>
+        <v>1.044041187757984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042869558836885</v>
+        <v>1.035733050673816</v>
       </c>
       <c r="J21">
-        <v>1.009226674420059</v>
+        <v>1.031960147974015</v>
       </c>
       <c r="K21">
-        <v>1.02213430304094</v>
+        <v>1.039705990625954</v>
       </c>
       <c r="L21">
-        <v>1.00461095548219</v>
+        <v>1.032766601505442</v>
       </c>
       <c r="M21">
-        <v>1.023820075321212</v>
+        <v>1.047591654599327</v>
       </c>
       <c r="N21">
-        <v>1.006911818701864</v>
+        <v>1.014644888115722</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9751228142854226</v>
+        <v>1.024616985267517</v>
       </c>
       <c r="D22">
-        <v>1.00443026667614</v>
+        <v>1.035589850808311</v>
       </c>
       <c r="E22">
-        <v>0.9861886648488306</v>
+        <v>1.028520978986756</v>
       </c>
       <c r="F22">
-        <v>1.005742529087953</v>
+        <v>1.043411984287311</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041650053228423</v>
+        <v>1.035576770059284</v>
       </c>
       <c r="J22">
-        <v>1.00699509989618</v>
+        <v>1.031533044708561</v>
       </c>
       <c r="K22">
-        <v>1.019914467059971</v>
+        <v>1.039300555494404</v>
       </c>
       <c r="L22">
-        <v>1.002038783582972</v>
+        <v>1.03225923608368</v>
       </c>
       <c r="M22">
-        <v>1.021201077314989</v>
+        <v>1.047092683129897</v>
       </c>
       <c r="N22">
-        <v>1.006162113531927</v>
+        <v>1.014502195718299</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9770891996475971</v>
+        <v>1.024977089209628</v>
       </c>
       <c r="D23">
-        <v>1.005952545473485</v>
+        <v>1.035874249375548</v>
       </c>
       <c r="E23">
-        <v>0.9879119328118184</v>
+        <v>1.028860101218146</v>
       </c>
       <c r="F23">
-        <v>1.007480451001393</v>
+        <v>1.043745509311191</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042300666528962</v>
+        <v>1.035659785010874</v>
       </c>
       <c r="J23">
-        <v>1.008183491434051</v>
+        <v>1.031759485452861</v>
       </c>
       <c r="K23">
-        <v>1.021096895493105</v>
+        <v>1.039515556771198</v>
       </c>
       <c r="L23">
-        <v>1.003408257632079</v>
+        <v>1.032528192694446</v>
       </c>
       <c r="M23">
-        <v>1.022595748370457</v>
+        <v>1.047357234327618</v>
       </c>
       <c r="N23">
-        <v>1.006561359834242</v>
+        <v>1.014577852600495</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9846430455080254</v>
+        <v>1.026395547034801</v>
       </c>
       <c r="D24">
-        <v>1.011806550155163</v>
+        <v>1.036993787858334</v>
       </c>
       <c r="E24">
-        <v>0.9945481801927988</v>
+        <v>1.030196770314995</v>
       </c>
       <c r="F24">
-        <v>1.014167331926624</v>
+        <v>1.045059172153064</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044772133222265</v>
+        <v>1.035982886148003</v>
       </c>
       <c r="J24">
-        <v>1.012745339042088</v>
+        <v>1.032650397808249</v>
       </c>
       <c r="K24">
-        <v>1.025629454075477</v>
+        <v>1.040360384963572</v>
       </c>
       <c r="L24">
-        <v>1.008671717137344</v>
+        <v>1.033587208785504</v>
       </c>
       <c r="M24">
-        <v>1.027950138803928</v>
+        <v>1.048397921606683</v>
       </c>
       <c r="N24">
-        <v>1.008093866628525</v>
+        <v>1.014875417925401</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.993050661309405</v>
+        <v>1.028043142484657</v>
       </c>
       <c r="D25">
-        <v>1.018331705528415</v>
+        <v>1.03829267163404</v>
       </c>
       <c r="E25">
-        <v>1.001965617483356</v>
+        <v>1.031751125373817</v>
       </c>
       <c r="F25">
-        <v>1.021628842744141</v>
+        <v>1.046584813470473</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047463734096444</v>
+        <v>1.036350097635585</v>
       </c>
       <c r="J25">
-        <v>1.01781418330049</v>
+        <v>1.033683055157635</v>
       </c>
       <c r="K25">
-        <v>1.030651957679034</v>
+        <v>1.041337387710108</v>
       </c>
       <c r="L25">
-        <v>1.01453349621409</v>
+        <v>1.034816433723312</v>
       </c>
       <c r="M25">
-        <v>1.033900427022052</v>
+        <v>1.049603830465733</v>
       </c>
       <c r="N25">
-        <v>1.009796401871856</v>
+        <v>1.015220116281212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029358489464243</v>
+        <v>0.9994951081661978</v>
       </c>
       <c r="D2">
-        <v>1.039328387759727</v>
+        <v>1.023338010121713</v>
       </c>
       <c r="E2">
-        <v>1.032993435636037</v>
+        <v>1.007674050823119</v>
       </c>
       <c r="F2">
-        <v>1.047802589758732</v>
+        <v>1.027360541437575</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036636729298295</v>
+        <v>1.049477217444004</v>
       </c>
       <c r="J2">
-        <v>1.034505705879688</v>
+        <v>1.021690930954309</v>
       </c>
       <c r="K2">
-        <v>1.042113887532002</v>
+        <v>1.034481509169538</v>
       </c>
       <c r="L2">
-        <v>1.035797065510537</v>
+        <v>1.019027499288566</v>
       </c>
       <c r="M2">
-        <v>1.050564208927227</v>
+        <v>1.0384514191398</v>
       </c>
       <c r="N2">
-        <v>1.01549454372717</v>
+        <v>1.011098156865386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030314250437209</v>
+        <v>1.004035009169816</v>
       </c>
       <c r="D3">
-        <v>1.04008023098506</v>
+        <v>1.026866243409667</v>
       </c>
       <c r="E3">
-        <v>1.033896929726259</v>
+        <v>1.01170786346778</v>
       </c>
       <c r="F3">
-        <v>1.048687320335965</v>
+        <v>1.031404335513327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036841210322978</v>
+        <v>1.050865856278731</v>
       </c>
       <c r="J3">
-        <v>1.035102433099425</v>
+        <v>1.024416276912222</v>
       </c>
       <c r="K3">
-        <v>1.042676080741799</v>
+        <v>1.03716652937344</v>
       </c>
       <c r="L3">
-        <v>1.036509194597152</v>
+        <v>1.022193100025123</v>
       </c>
       <c r="M3">
-        <v>1.051260668364345</v>
+        <v>1.041650561675911</v>
       </c>
       <c r="N3">
-        <v>1.015693505177421</v>
+        <v>1.012013002155786</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030933013231556</v>
+        <v>1.006911875023782</v>
       </c>
       <c r="D4">
-        <v>1.040566633895493</v>
+        <v>1.029102301915934</v>
       </c>
       <c r="E4">
-        <v>1.034482223325876</v>
+        <v>1.01426950783467</v>
       </c>
       <c r="F4">
-        <v>1.049260032161022</v>
+        <v>1.033969235777473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036971835583761</v>
+        <v>1.051731676559445</v>
       </c>
       <c r="J4">
-        <v>1.035488277858751</v>
+        <v>1.026140411771931</v>
       </c>
       <c r="K4">
-        <v>1.043039104636248</v>
+        <v>1.038861731167306</v>
       </c>
       <c r="L4">
-        <v>1.036970032394771</v>
+        <v>1.024198709798978</v>
       </c>
       <c r="M4">
-        <v>1.051710919707445</v>
+        <v>1.043674265167595</v>
       </c>
       <c r="N4">
-        <v>1.015822107183003</v>
+        <v>1.012591606114234</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031193217281273</v>
+        <v>1.008107283958251</v>
       </c>
       <c r="D5">
-        <v>1.040771094823307</v>
+        <v>1.03003144705647</v>
       </c>
       <c r="E5">
-        <v>1.034728440573235</v>
+        <v>1.015335212234643</v>
       </c>
       <c r="F5">
-        <v>1.04950085440024</v>
+        <v>1.03503554147483</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037026345758757</v>
+        <v>1.052088001837865</v>
       </c>
       <c r="J5">
-        <v>1.035650419654175</v>
+        <v>1.026856107989563</v>
       </c>
       <c r="K5">
-        <v>1.043191538654886</v>
+        <v>1.039564578869962</v>
       </c>
       <c r="L5">
-        <v>1.037163777823753</v>
+        <v>1.025031961946374</v>
       </c>
       <c r="M5">
-        <v>1.051900107373743</v>
+        <v>1.044514261865879</v>
       </c>
       <c r="N5">
-        <v>1.015876137767179</v>
+        <v>1.01283174696269</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031236911129507</v>
+        <v>1.008307190521109</v>
       </c>
       <c r="D6">
-        <v>1.04080542333384</v>
+        <v>1.030186825500711</v>
       </c>
       <c r="E6">
-        <v>1.034769790869901</v>
+        <v>1.015513502564973</v>
       </c>
       <c r="F6">
-        <v>1.049541292652195</v>
+        <v>1.0352138877387</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037035474506811</v>
+        <v>1.052147385630748</v>
       </c>
       <c r="J6">
-        <v>1.035677640000812</v>
+        <v>1.026975749288181</v>
       </c>
       <c r="K6">
-        <v>1.043217122340198</v>
+        <v>1.039682022525603</v>
       </c>
       <c r="L6">
-        <v>1.03719630904547</v>
+        <v>1.025171296954589</v>
       </c>
       <c r="M6">
-        <v>1.051931867034793</v>
+        <v>1.044654678824306</v>
       </c>
       <c r="N6">
-        <v>1.015885207754083</v>
+        <v>1.012871888296294</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030936489792509</v>
+        <v>1.006927902578557</v>
       </c>
       <c r="D7">
-        <v>1.0405693660039</v>
+        <v>1.029114759559379</v>
       </c>
       <c r="E7">
-        <v>1.034485512666296</v>
+        <v>1.014283791363451</v>
       </c>
       <c r="F7">
-        <v>1.049263249828349</v>
+        <v>1.033983530357309</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036972565542356</v>
+        <v>1.051736467698857</v>
       </c>
       <c r="J7">
-        <v>1.035490444671059</v>
+        <v>1.026150010441565</v>
       </c>
       <c r="K7">
-        <v>1.04304114218046</v>
+        <v>1.038871160852886</v>
       </c>
       <c r="L7">
-        <v>1.036972621195704</v>
+        <v>1.024209882257664</v>
       </c>
       <c r="M7">
-        <v>1.051713448028839</v>
+        <v>1.043685531131579</v>
       </c>
       <c r="N7">
-        <v>1.015822829275152</v>
+        <v>1.012594826963547</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029681426299789</v>
+        <v>1.001042289484199</v>
       </c>
       <c r="D8">
-        <v>1.039582494522878</v>
+        <v>1.024540326265853</v>
       </c>
       <c r="E8">
-        <v>1.03329863573683</v>
+        <v>1.009047586939601</v>
       </c>
       <c r="F8">
-        <v>1.048101539756717</v>
+        <v>1.028738113531797</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036706183657443</v>
+        <v>1.049953393817922</v>
       </c>
       <c r="J8">
-        <v>1.034707429604893</v>
+        <v>1.022620300282612</v>
       </c>
       <c r="K8">
-        <v>1.042304038595554</v>
+        <v>1.035397834954205</v>
       </c>
       <c r="L8">
-        <v>1.03603772343962</v>
+        <v>1.020106381892465</v>
       </c>
       <c r="M8">
-        <v>1.050799663707234</v>
+        <v>1.039542386218673</v>
       </c>
       <c r="N8">
-        <v>1.015561812333478</v>
+        <v>1.011410158373121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02747234195202</v>
+        <v>0.9901810515811673</v>
       </c>
       <c r="D9">
-        <v>1.037842870344375</v>
+        <v>1.016103661660303</v>
       </c>
       <c r="E9">
-        <v>1.031212409506195</v>
+        <v>0.9994302135625891</v>
       </c>
       <c r="F9">
-        <v>1.046056294113215</v>
+        <v>1.019080011903218</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036223888434456</v>
+        <v>1.046552751328758</v>
       </c>
       <c r="J9">
-        <v>1.033325568722247</v>
+        <v>1.016085371367648</v>
       </c>
       <c r="K9">
-        <v>1.040999448138313</v>
+        <v>1.028940761569074</v>
       </c>
       <c r="L9">
-        <v>1.034390684524901</v>
+        <v>1.012532541923462</v>
       </c>
       <c r="M9">
-        <v>1.049186412200731</v>
+        <v>1.031870932303577</v>
       </c>
       <c r="N9">
-        <v>1.015100814612007</v>
+        <v>1.009215774429493</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026001344234116</v>
+        <v>0.9825738538875248</v>
       </c>
       <c r="D10">
-        <v>1.03668277421624</v>
+        <v>1.010202080876751</v>
       </c>
       <c r="E10">
-        <v>1.029825158647949</v>
+        <v>0.9927277444075276</v>
       </c>
       <c r="F10">
-        <v>1.044694109829056</v>
+        <v>1.012333976633651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03589372579592</v>
+        <v>1.044099770456706</v>
       </c>
       <c r="J10">
-        <v>1.032402974459701</v>
+        <v>1.011496338859133</v>
       </c>
       <c r="K10">
-        <v>1.040125935091241</v>
+        <v>1.024389544785647</v>
       </c>
       <c r="L10">
-        <v>1.033292965251719</v>
+        <v>1.007229554915813</v>
       </c>
       <c r="M10">
-        <v>1.048108930279531</v>
+        <v>1.026484051896315</v>
       </c>
       <c r="N10">
-        <v>1.014792794721361</v>
+        <v>1.007674293924143</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025364804217437</v>
+        <v>0.9791839879374161</v>
       </c>
       <c r="D11">
-        <v>1.036180373464728</v>
+        <v>1.007574997087011</v>
       </c>
       <c r="E11">
-        <v>1.029225323742516</v>
+        <v>0.9897496500304044</v>
       </c>
       <c r="F11">
-        <v>1.044104596470485</v>
+        <v>1.009333140441396</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035748722017881</v>
+        <v>1.042990597825722</v>
       </c>
       <c r="J11">
-        <v>1.032003170144114</v>
+        <v>1.009449130690005</v>
       </c>
       <c r="K11">
-        <v>1.039746808474387</v>
+        <v>1.022355460089195</v>
       </c>
       <c r="L11">
-        <v>1.032817725195156</v>
+        <v>1.004867496926583</v>
       </c>
       <c r="M11">
-        <v>1.047641912698147</v>
+        <v>1.024081167927128</v>
       </c>
       <c r="N11">
-        <v>1.014659259519732</v>
+        <v>1.006986552558776</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02512842742354</v>
+        <v>0.9779096051900779</v>
       </c>
       <c r="D12">
-        <v>1.035993749955104</v>
+        <v>1.006587872197509</v>
       </c>
       <c r="E12">
-        <v>1.029002647725759</v>
+        <v>0.9886314219378102</v>
       </c>
       <c r="F12">
-        <v>1.04388567449855</v>
+        <v>1.008205884223182</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035694555075162</v>
+        <v>1.042571269037744</v>
       </c>
       <c r="J12">
-        <v>1.031854618488271</v>
+        <v>1.008679213971751</v>
       </c>
       <c r="K12">
-        <v>1.039605851230595</v>
+        <v>1.02158993803955</v>
       </c>
       <c r="L12">
-        <v>1.032641212744134</v>
+        <v>1.003979715859315</v>
       </c>
       <c r="M12">
-        <v>1.047468373406819</v>
+        <v>1.023177543145574</v>
       </c>
       <c r="N12">
-        <v>1.014609634786785</v>
+        <v>1.006727899128827</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025179128208953</v>
+        <v>0.9781836680161846</v>
       </c>
       <c r="D13">
-        <v>1.036033781741565</v>
+        <v>1.006800134725341</v>
       </c>
       <c r="E13">
-        <v>1.029050406615276</v>
+        <v>0.9888718407177983</v>
       </c>
       <c r="F13">
-        <v>1.043932631743021</v>
+        <v>1.008448265816325</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035706187909867</v>
+        <v>1.042661552837737</v>
       </c>
       <c r="J13">
-        <v>1.031886485415871</v>
+        <v>1.00884480100574</v>
       </c>
       <c r="K13">
-        <v>1.039636093029641</v>
+        <v>1.021754603977139</v>
       </c>
       <c r="L13">
-        <v>1.032679074667381</v>
+        <v>1.004170627586663</v>
       </c>
       <c r="M13">
-        <v>1.047505601241615</v>
+        <v>1.023371884184659</v>
       </c>
       <c r="N13">
-        <v>1.014620280533121</v>
+        <v>1.006783528309492</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02534526395892</v>
+        <v>0.9790789628642061</v>
       </c>
       <c r="D14">
-        <v>1.036164947293889</v>
+        <v>1.007493635008076</v>
       </c>
       <c r="E14">
-        <v>1.029206914628</v>
+        <v>0.9896574661860899</v>
       </c>
       <c r="F14">
-        <v>1.044086499294244</v>
+        <v>1.009240222165869</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035744250802155</v>
+        <v>1.042956087185625</v>
       </c>
       <c r="J14">
-        <v>1.031990891762628</v>
+        <v>1.009385685546983</v>
       </c>
       <c r="K14">
-        <v>1.039735159607084</v>
+        <v>1.022292387950306</v>
       </c>
       <c r="L14">
-        <v>1.032803134353215</v>
+        <v>1.004794328098758</v>
       </c>
       <c r="M14">
-        <v>1.047627569270659</v>
+        <v>1.024006703324661</v>
       </c>
       <c r="N14">
-        <v>1.014655158007832</v>
+        <v>1.006965238283123</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025447633980536</v>
+        <v>0.9796285389220355</v>
       </c>
       <c r="D15">
-        <v>1.03624576149761</v>
+        <v>1.007919407995032</v>
       </c>
       <c r="E15">
-        <v>1.029303361556057</v>
+        <v>0.9901399020897269</v>
       </c>
       <c r="F15">
-        <v>1.044181308772261</v>
+        <v>1.009726481832297</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03576766206465</v>
+        <v>1.043136579493626</v>
       </c>
       <c r="J15">
-        <v>1.032055213816112</v>
+        <v>1.009717670239887</v>
       </c>
       <c r="K15">
-        <v>1.039796180233792</v>
+        <v>1.022622398946724</v>
       </c>
       <c r="L15">
-        <v>1.03287957335198</v>
+        <v>1.005177215373121</v>
       </c>
       <c r="M15">
-        <v>1.047702708797646</v>
+        <v>1.024396351069745</v>
       </c>
       <c r="N15">
-        <v>1.014676644024807</v>
+        <v>1.007076767661994</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026043598028732</v>
+        <v>0.9827967383380678</v>
       </c>
       <c r="D16">
-        <v>1.036716115499339</v>
+        <v>1.010374876487829</v>
       </c>
       <c r="E16">
-        <v>1.029864985798296</v>
+        <v>0.9929237391344509</v>
       </c>
       <c r="F16">
-        <v>1.044733240767741</v>
+        <v>1.012531399105036</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035903306263463</v>
+        <v>1.044172369484933</v>
       </c>
       <c r="J16">
-        <v>1.032429501587207</v>
+        <v>1.011630900068593</v>
       </c>
       <c r="K16">
-        <v>1.04015107781063</v>
+        <v>1.024523167241546</v>
       </c>
       <c r="L16">
-        <v>1.033324507123919</v>
+        <v>1.007384886629267</v>
       </c>
       <c r="M16">
-        <v>1.048139915080564</v>
+        <v>1.02664199802715</v>
       </c>
       <c r="N16">
-        <v>1.014801653656507</v>
+        <v>1.007719497396039</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026417541218554</v>
+        <v>0.9847578253437937</v>
       </c>
       <c r="D17">
-        <v>1.037011137877522</v>
+        <v>1.011895569867215</v>
       </c>
       <c r="E17">
-        <v>1.030217507223309</v>
+        <v>0.9946492192232055</v>
       </c>
       <c r="F17">
-        <v>1.045079540062981</v>
+        <v>1.014269065256596</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035987846215316</v>
+        <v>1.044809321653749</v>
       </c>
       <c r="J17">
-        <v>1.032664198658034</v>
+        <v>1.012814606880867</v>
       </c>
       <c r="K17">
-        <v>1.040373458143342</v>
+        <v>1.025698192593874</v>
       </c>
       <c r="L17">
-        <v>1.033603624281449</v>
+        <v>1.008751721999543</v>
       </c>
       <c r="M17">
-        <v>1.04841404041307</v>
+        <v>1.028031447667942</v>
       </c>
       <c r="N17">
-        <v>1.014880026128232</v>
+        <v>1.008117135066291</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026635695633757</v>
+        <v>0.9858925003382705</v>
       </c>
       <c r="D18">
-        <v>1.037183212460602</v>
+        <v>1.012775688996731</v>
       </c>
       <c r="E18">
-        <v>1.030423209319454</v>
+        <v>0.9956483860283682</v>
       </c>
       <c r="F18">
-        <v>1.045281561512478</v>
+        <v>1.015274965734294</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036036959956177</v>
+        <v>1.045176327903275</v>
       </c>
       <c r="J18">
-        <v>1.032801063052059</v>
+        <v>1.013499274349814</v>
       </c>
       <c r="K18">
-        <v>1.040503082923406</v>
+        <v>1.026377482029681</v>
       </c>
       <c r="L18">
-        <v>1.033766436220141</v>
+        <v>1.009542659159046</v>
       </c>
       <c r="M18">
-        <v>1.048573888550221</v>
+        <v>1.028835141413188</v>
       </c>
       <c r="N18">
-        <v>1.014925723953039</v>
+        <v>1.008347125317751</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02671008736205</v>
+        <v>0.9862778599145003</v>
       </c>
       <c r="D19">
-        <v>1.037241884225211</v>
+        <v>1.013074636532073</v>
       </c>
       <c r="E19">
-        <v>1.030493362346955</v>
+        <v>0.9959878603090148</v>
       </c>
       <c r="F19">
-        <v>1.04535045081424</v>
+        <v>1.015616672498262</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036053673043209</v>
+        <v>1.045300709221614</v>
       </c>
       <c r="J19">
-        <v>1.032847725087186</v>
+        <v>1.01373176320873</v>
       </c>
       <c r="K19">
-        <v>1.040547267024167</v>
+        <v>1.026608083566694</v>
       </c>
       <c r="L19">
-        <v>1.033821952149317</v>
+        <v>1.009811292316101</v>
       </c>
       <c r="M19">
-        <v>1.048628385048464</v>
+        <v>1.029108050728687</v>
       </c>
       <c r="N19">
-        <v>1.014941303089864</v>
+        <v>1.008425220523603</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026377416544232</v>
+        <v>0.9845483760253376</v>
       </c>
       <c r="D20">
-        <v>1.036979485481267</v>
+        <v>1.011733128838012</v>
       </c>
       <c r="E20">
-        <v>1.030179676488677</v>
+        <v>0.9944648486062994</v>
       </c>
       <c r="F20">
-        <v>1.045042382217699</v>
+        <v>1.014083425890121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035978796249185</v>
+        <v>1.044741451831148</v>
       </c>
       <c r="J20">
-        <v>1.032639021026009</v>
+        <v>1.012688206239647</v>
       </c>
       <c r="K20">
-        <v>1.040349607717084</v>
+        <v>1.025572755840698</v>
       </c>
       <c r="L20">
-        <v>1.03357367685694</v>
+        <v>1.008605730291835</v>
       </c>
       <c r="M20">
-        <v>1.048384633957561</v>
+        <v>1.02788307456983</v>
       </c>
       <c r="N20">
-        <v>1.014871619105963</v>
+        <v>1.008074674548139</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02529633939051</v>
+        <v>0.9788157483756714</v>
       </c>
       <c r="D21">
-        <v>1.036126322560313</v>
+        <v>1.007289733193056</v>
       </c>
       <c r="E21">
-        <v>1.029160823338988</v>
+        <v>0.9894264564781848</v>
       </c>
       <c r="F21">
-        <v>1.044041187757984</v>
+        <v>1.009007364187936</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035733050673816</v>
+        <v>1.042869558836885</v>
       </c>
       <c r="J21">
-        <v>1.031960147974015</v>
+        <v>1.009226674420058</v>
       </c>
       <c r="K21">
-        <v>1.039705990625954</v>
+        <v>1.022134303040939</v>
       </c>
       <c r="L21">
-        <v>1.032766601505442</v>
+        <v>1.00461095548219</v>
       </c>
       <c r="M21">
-        <v>1.047591654599327</v>
+        <v>1.023820075321212</v>
       </c>
       <c r="N21">
-        <v>1.014644888115722</v>
+        <v>1.006911818701864</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024616985267517</v>
+        <v>0.9751228142854235</v>
       </c>
       <c r="D22">
-        <v>1.035589850808311</v>
+        <v>1.004430266676141</v>
       </c>
       <c r="E22">
-        <v>1.028520978986756</v>
+        <v>0.9861886648488312</v>
       </c>
       <c r="F22">
-        <v>1.043411984287311</v>
+        <v>1.005742529087954</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035576770059284</v>
+        <v>1.041650053228424</v>
       </c>
       <c r="J22">
-        <v>1.031533044708561</v>
+        <v>1.006995099896181</v>
       </c>
       <c r="K22">
-        <v>1.039300555494404</v>
+        <v>1.019914467059972</v>
       </c>
       <c r="L22">
-        <v>1.03225923608368</v>
+        <v>1.002038783582973</v>
       </c>
       <c r="M22">
-        <v>1.047092683129897</v>
+        <v>1.02120107731499</v>
       </c>
       <c r="N22">
-        <v>1.014502195718299</v>
+        <v>1.006162113531927</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024977089209628</v>
+        <v>0.977089199647597</v>
       </c>
       <c r="D23">
-        <v>1.035874249375548</v>
+        <v>1.005952545473485</v>
       </c>
       <c r="E23">
-        <v>1.028860101218146</v>
+        <v>0.9879119328118183</v>
       </c>
       <c r="F23">
-        <v>1.043745509311191</v>
+        <v>1.007480451001393</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035659785010874</v>
+        <v>1.042300666528961</v>
       </c>
       <c r="J23">
-        <v>1.031759485452861</v>
+        <v>1.008183491434051</v>
       </c>
       <c r="K23">
-        <v>1.039515556771198</v>
+        <v>1.021096895493105</v>
       </c>
       <c r="L23">
-        <v>1.032528192694446</v>
+        <v>1.003408257632079</v>
       </c>
       <c r="M23">
-        <v>1.047357234327618</v>
+        <v>1.022595748370457</v>
       </c>
       <c r="N23">
-        <v>1.014577852600495</v>
+        <v>1.006561359834242</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026395547034801</v>
+        <v>0.9846430455080249</v>
       </c>
       <c r="D24">
-        <v>1.036993787858334</v>
+        <v>1.011806550155163</v>
       </c>
       <c r="E24">
-        <v>1.030196770314995</v>
+        <v>0.9945481801927981</v>
       </c>
       <c r="F24">
-        <v>1.045059172153064</v>
+        <v>1.014167331926623</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035982886148003</v>
+        <v>1.044772133222264</v>
       </c>
       <c r="J24">
-        <v>1.032650397808249</v>
+        <v>1.012745339042088</v>
       </c>
       <c r="K24">
-        <v>1.040360384963572</v>
+        <v>1.025629454075477</v>
       </c>
       <c r="L24">
-        <v>1.033587208785504</v>
+        <v>1.008671717137344</v>
       </c>
       <c r="M24">
-        <v>1.048397921606683</v>
+        <v>1.027950138803928</v>
       </c>
       <c r="N24">
-        <v>1.014875417925401</v>
+        <v>1.008093866628525</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028043142484657</v>
+        <v>0.9930506613094052</v>
       </c>
       <c r="D25">
-        <v>1.03829267163404</v>
+        <v>1.018331705528415</v>
       </c>
       <c r="E25">
-        <v>1.031751125373817</v>
+        <v>1.001965617483356</v>
       </c>
       <c r="F25">
-        <v>1.046584813470473</v>
+        <v>1.021628842744141</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036350097635585</v>
+        <v>1.047463734096444</v>
       </c>
       <c r="J25">
-        <v>1.033683055157635</v>
+        <v>1.017814183300491</v>
       </c>
       <c r="K25">
-        <v>1.041337387710108</v>
+        <v>1.030651957679034</v>
       </c>
       <c r="L25">
-        <v>1.034816433723312</v>
+        <v>1.01453349621409</v>
       </c>
       <c r="M25">
-        <v>1.049603830465733</v>
+        <v>1.033900427022052</v>
       </c>
       <c r="N25">
-        <v>1.015220116281212</v>
+        <v>1.009796401871856</v>
       </c>
     </row>
   </sheetData>
